--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-6thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-6thInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +276,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,7 +604,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +649,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>195.5</v>
+        <v>195.55</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -653,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>195.5</v>
+        <v>195.55</v>
       </c>
       <c r="F3" s="6">
         <v>89.33</v>
@@ -709,7 +717,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +911,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,13 +1053,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>841.23</v>
+        <v>841.22</v>
       </c>
       <c r="G4" s="7">
-        <v>3322.06</v>
+        <v>3322.07</v>
       </c>
       <c r="H4" s="6">
-        <v>46.49</v>
+        <v>46.5</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1090,13 +1098,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>838.09</v>
+        <v>838.06</v>
       </c>
       <c r="G5" s="7">
-        <v>2483.9699999999998</v>
+        <v>2484.0100000000002</v>
       </c>
       <c r="H5" s="6">
-        <v>49.63</v>
+        <v>49.66</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1135,13 +1143,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>863.24</v>
+        <v>863.23</v>
       </c>
       <c r="G6" s="7">
-        <v>1620.73</v>
+        <v>1620.78</v>
       </c>
       <c r="H6" s="6">
-        <v>24.48</v>
+        <v>24.49</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1183,7 +1191,7 @@
         <v>871.21</v>
       </c>
       <c r="G7" s="6">
-        <v>749.52</v>
+        <v>749.57</v>
       </c>
       <c r="H7" s="6">
         <v>16.510000000000002</v>
@@ -1225,7 +1233,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>749.52</v>
+        <v>749.57</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -1240,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>756.9</v>
+        <v>756.95</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>756.9</v>
+        <v>756.95</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1317,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>700</v>
+        <v>213</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1321,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>66.23</v>
+        <v>63.11</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5157.04</v>
+        <v>5157.08</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>699</v>
+        <v>212</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1345,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1357,7 +1365,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>697</v>
+        <v>210</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1369,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>0.24</v>
+        <v>8.51</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1381,7 +1389,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>695</v>
+        <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1393,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1405,7 +1413,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>692</v>
+        <v>202</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1417,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="6">
-        <v>2.68</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1429,7 +1437,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1453,7 +1461,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>694</v>
+        <v>209</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1462,22 +1470,22 @@
         <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
-        <v>46.43</v>
+        <v>49.59</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>0</v>
+      <c r="J8" s="7">
+        <v>5093.97</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>687</v>
+        <v>208</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1486,58 +1494,58 @@
         <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>46.43</v>
+        <v>0.24</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7">
-        <v>5090.8100000000004</v>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>685</v>
+        <v>204</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
-        <v>44.38</v>
+        <v>0.24</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="7">
-        <v>5044.38</v>
+      <c r="J10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>684</v>
+        <v>200</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>44.38</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1549,25 +1557,97 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>683</v>
+        <v>196</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
+        <v>42063</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>46.43</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>195</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>194</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>193</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
         <v>42009</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E15" s="5">
         <v>5000</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1581,12 +1661,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1635,7 +1717,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -1666,7 +1748,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +1779,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1728,7 +1810,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1841,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1792,11 +1874,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/19/waivecharge/117" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/117"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/19/waivecharge/118" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/118"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/19/waivecharge/119" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/119"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/19/waivecharge/120" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/120"/>
-    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/19/waivecharge/121" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/121"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/7/waivecharge/19" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/19"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/7/waivecharge/20" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/20"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/7/waivecharge/21" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/21"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/7/waivecharge/22" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/22"/>
+    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/7/waivecharge/23" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-6thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-6thInstallment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -167,7 +167,7 @@
     <t>$0.24</t>
   </si>
   <si>
-    <t>$8.51</t>
+    <t>$6.08</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>14.35</v>
+        <v>11.92</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>14.35</v>
+        <v>11.92</v>
       </c>
       <c r="F5" s="6">
         <v>3.16</v>
@@ -717,7 +717,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>11.19</v>
+        <v>8.76</v>
       </c>
       <c r="G5" s="6">
-        <v>898.91</v>
+        <v>896.48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>11.19</v>
+        <v>8.76</v>
       </c>
       <c r="K5" s="6">
-        <v>898.91</v>
+        <v>896.48</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6">
-        <v>898.91</v>
+        <v>896.48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>213</v>
+        <v>470</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>63.11</v>
+        <v>60.68</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5157.08</v>
+        <v>5154.6499999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>212</v>
+        <v>469</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>8.51</v>
+        <v>6.08</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>206</v>
+        <v>457</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>202</v>
+        <v>449</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>208</v>
+        <v>461</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>200</v>
+        <v>447</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
@@ -1661,14 +1661,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="4" width="9.140625" style="10"/>
+    <col min="5" max="7" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1874,11 +1874,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/7/waivecharge/19" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/19"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/7/waivecharge/20" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/20"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/7/waivecharge/21" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/21"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/7/waivecharge/22" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/22"/>
-    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/7/waivecharge/23" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/23"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/15/waivecharge/41" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/41"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/15/waivecharge/43" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/43"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/15/waivecharge/45" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/45"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/15/waivecharge/47" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/47"/>
+    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/15/waivecharge/49" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
